--- a/Code/Results/Cases/Case_8_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_60/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,61 +424,76 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028858378607761</v>
+        <v>1.020715753963596</v>
       </c>
       <c r="D2">
-        <v>1.044132961399873</v>
+        <v>1.037520643769156</v>
       </c>
       <c r="E2">
-        <v>1.03970794261869</v>
+        <v>1.033234195244297</v>
       </c>
       <c r="F2">
-        <v>1.048316080309176</v>
+        <v>1.042518121837469</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.058921762038485</v>
+        <v>1.055562973552943</v>
       </c>
       <c r="J2">
-        <v>1.050208916651692</v>
+        <v>1.042294034734075</v>
       </c>
       <c r="K2">
-        <v>1.055009877238535</v>
+        <v>1.048480879898339</v>
       </c>
       <c r="L2">
-        <v>1.05064047071361</v>
+        <v>1.044249156070977</v>
       </c>
       <c r="M2">
-        <v>1.059140961571296</v>
+        <v>1.053415264256575</v>
       </c>
       <c r="N2">
-        <v>1.051700333773984</v>
+        <v>1.033310789151929</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.05537834428977</v>
+        <v>1.050846916249531</v>
       </c>
       <c r="Q2">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.049966925772654</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.045359132442895</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024491368776997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034333500562</v>
+        <v>1.025247810968388</v>
       </c>
       <c r="D3">
-        <v>1.047904914366677</v>
+        <v>1.040527566029707</v>
       </c>
       <c r="E3">
-        <v>1.044098043985782</v>
+        <v>1.036804939608131</v>
       </c>
       <c r="F3">
-        <v>1.052274113947832</v>
+        <v>1.045784828578258</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.060354341486569</v>
+        <v>1.056603098879408</v>
       </c>
       <c r="J3">
-        <v>1.053930031702281</v>
+        <v>1.045073083612363</v>
       </c>
       <c r="K3">
-        <v>1.057959448282387</v>
+        <v>1.050666876129698</v>
       </c>
       <c r="L3">
-        <v>1.054196139528224</v>
+        <v>1.046987594416162</v>
       </c>
       <c r="M3">
-        <v>1.062279130246893</v>
+        <v>1.055863574126622</v>
       </c>
       <c r="N3">
-        <v>1.055426733234763</v>
+        <v>1.034868851765713</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.0578619404373</v>
+        <v>1.052784559555714</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.052049846614131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.046901877136476</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025011717980914</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037797146915191</v>
+        <v>1.028122312431823</v>
       </c>
       <c r="D4">
-        <v>1.050293044557962</v>
+        <v>1.042436333656986</v>
       </c>
       <c r="E4">
-        <v>1.046880443185581</v>
+        <v>1.039075218431468</v>
       </c>
       <c r="F4">
-        <v>1.054784437778306</v>
+        <v>1.047862748061454</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.061246321511832</v>
+        <v>1.057248645195104</v>
       </c>
       <c r="J4">
-        <v>1.056281039529128</v>
+        <v>1.046833012900539</v>
       </c>
       <c r="K4">
-        <v>1.059820126764098</v>
+        <v>1.052048208744023</v>
       </c>
       <c r="L4">
-        <v>1.056444163938562</v>
+        <v>1.048723849013088</v>
       </c>
       <c r="M4">
-        <v>1.064263741382547</v>
+        <v>1.057415892566415</v>
       </c>
       <c r="N4">
-        <v>1.057781079762389</v>
+        <v>1.035855539508079</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.059432588814045</v>
+        <v>1.054013094042477</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.053366345942388</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047879542439383</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025337970586605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039242589676933</v>
+        <v>1.02932253995334</v>
       </c>
       <c r="D5">
-        <v>1.051292193688644</v>
+        <v>1.043235808664389</v>
       </c>
       <c r="E5">
-        <v>1.048044475188338</v>
+        <v>1.040025723416121</v>
       </c>
       <c r="F5">
-        <v>1.055834441946711</v>
+        <v>1.04873260370243</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.061616868735033</v>
+        <v>1.057516425791113</v>
       </c>
       <c r="J5">
-        <v>1.057263627209272</v>
+        <v>1.047569071717822</v>
       </c>
       <c r="K5">
-        <v>1.060598516807645</v>
+        <v>1.052626745786458</v>
       </c>
       <c r="L5">
-        <v>1.057384716941614</v>
+        <v>1.049450822346678</v>
       </c>
       <c r="M5">
-        <v>1.065093753529662</v>
+        <v>1.058065637324583</v>
       </c>
       <c r="N5">
-        <v>1.058765062829742</v>
+        <v>1.036268201748704</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.060089470822086</v>
+        <v>1.05452731387185</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.053923754336936</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.048296393861299</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025475358883081</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039493373586731</v>
+        <v>1.029529627215805</v>
       </c>
       <c r="D6">
-        <v>1.051468166285872</v>
+        <v>1.043376382515028</v>
       </c>
       <c r="E6">
-        <v>1.048248572532313</v>
+        <v>1.040191362746186</v>
       </c>
       <c r="F6">
-        <v>1.056017821855642</v>
+        <v>1.048883797223881</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.061683148256226</v>
+        <v>1.057564490185949</v>
       </c>
       <c r="J6">
-        <v>1.057436782231421</v>
+        <v>1.047698337599643</v>
       </c>
       <c r="K6">
-        <v>1.060737391351472</v>
+        <v>1.052730200252473</v>
       </c>
       <c r="L6">
-        <v>1.057551264609152</v>
+        <v>1.049578918862992</v>
       </c>
       <c r="M6">
-        <v>1.065240178408478</v>
+        <v>1.058179866403521</v>
       </c>
       <c r="N6">
-        <v>1.058938463751884</v>
+        <v>1.036340672928188</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.060205353247038</v>
+        <v>1.054617716808253</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.054030529719922</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.048379040011041</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025501549460437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037841307345496</v>
+        <v>1.02819594766988</v>
       </c>
       <c r="D7">
-        <v>1.050330553243126</v>
+        <v>1.042496056819345</v>
       </c>
       <c r="E7">
-        <v>1.046921661935304</v>
+        <v>1.039144548955094</v>
       </c>
       <c r="F7">
-        <v>1.054819539463391</v>
+        <v>1.04791993138134</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.061263574060749</v>
+        <v>1.05727718203939</v>
       </c>
       <c r="J7">
-        <v>1.056318422315137</v>
+        <v>1.046899062946187</v>
       </c>
       <c r="K7">
-        <v>1.059854423824012</v>
+        <v>1.052104442823223</v>
       </c>
       <c r="L7">
-        <v>1.056482115721554</v>
+        <v>1.048789567628416</v>
       </c>
       <c r="M7">
-        <v>1.064295676906932</v>
+        <v>1.057469641837161</v>
       </c>
       <c r="N7">
-        <v>1.057818515636241</v>
+        <v>1.035944033968583</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.059457862998329</v>
+        <v>1.054055632207027</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.053410345682835</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047941153248521</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025362830969435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030757495783942</v>
+        <v>1.022410343809943</v>
       </c>
       <c r="D8">
-        <v>1.045449647012292</v>
+        <v>1.038665888688671</v>
       </c>
       <c r="E8">
-        <v>1.041237171343449</v>
+        <v>1.034596529641866</v>
       </c>
       <c r="F8">
-        <v>1.049691552420243</v>
+        <v>1.043746185248167</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.059428924476938</v>
+        <v>1.055981852836672</v>
       </c>
       <c r="J8">
-        <v>1.051509612623646</v>
+        <v>1.043387856711793</v>
       </c>
       <c r="K8">
-        <v>1.056047252732092</v>
+        <v>1.049346389427617</v>
       </c>
       <c r="L8">
-        <v>1.051886093892699</v>
+        <v>1.045327406162863</v>
       </c>
       <c r="M8">
-        <v>1.060237999255055</v>
+        <v>1.054364480731024</v>
       </c>
       <c r="N8">
-        <v>1.05300287688341</v>
+        <v>1.034080277508474</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.056246558120344</v>
+        <v>1.051598146485389</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.050722961761704</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.045996018761801</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024726519173962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017590543723284</v>
+        <v>1.011593938411281</v>
       </c>
       <c r="D9">
-        <v>1.03638492350823</v>
+        <v>1.031496723688667</v>
       </c>
       <c r="E9">
-        <v>1.030705456590802</v>
+        <v>1.026109301282663</v>
       </c>
       <c r="F9">
-        <v>1.040209498814936</v>
+        <v>1.035984789539276</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.055897637688316</v>
+        <v>1.053419565134446</v>
       </c>
       <c r="J9">
-        <v>1.042537068342756</v>
+        <v>1.036743824487526</v>
       </c>
       <c r="K9">
-        <v>1.048914028512107</v>
+        <v>1.044098651965268</v>
       </c>
       <c r="L9">
-        <v>1.043319255657263</v>
+        <v>1.038792514415336</v>
       </c>
       <c r="M9">
-        <v>1.052682232063969</v>
+        <v>1.048519822824109</v>
       </c>
       <c r="N9">
-        <v>1.044017590560476</v>
+        <v>1.030374658493197</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.050266778365786</v>
+        <v>1.046972547093669</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.045676283258516</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.042282171698616</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023463793149489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.008479323675075</v>
+        <v>1.004343560481161</v>
       </c>
       <c r="D10">
-        <v>1.030156171827508</v>
+        <v>1.02675081189611</v>
       </c>
       <c r="E10">
-        <v>1.023498886895554</v>
+        <v>1.020530477641297</v>
       </c>
       <c r="F10">
-        <v>1.033751941505424</v>
+        <v>1.030888360648741</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.053407821958926</v>
+        <v>1.051684099885995</v>
       </c>
       <c r="J10">
-        <v>1.036360512527724</v>
+        <v>1.032385898920001</v>
       </c>
       <c r="K10">
-        <v>1.044001488317762</v>
+        <v>1.040653305190392</v>
       </c>
       <c r="L10">
-        <v>1.037456439313635</v>
+        <v>1.034538684764735</v>
       </c>
       <c r="M10">
-        <v>1.047537410544737</v>
+        <v>1.044721447085288</v>
       </c>
       <c r="N10">
-        <v>1.037832263327726</v>
+        <v>1.028162805157393</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.046245998222014</v>
+        <v>1.044017502864549</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.042219500419248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.039864495284373</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022678632401344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.005633070615</v>
+        <v>1.002200017194729</v>
       </c>
       <c r="D11">
-        <v>1.028415763634987</v>
+        <v>1.025564149181078</v>
       </c>
       <c r="E11">
-        <v>1.02163266127855</v>
+        <v>1.019242740073381</v>
       </c>
       <c r="F11">
-        <v>1.032243019851546</v>
+        <v>1.029882701364083</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.052803946067091</v>
+        <v>1.051361401840045</v>
       </c>
       <c r="J11">
-        <v>1.034773370505287</v>
+        <v>1.03148155841958</v>
       </c>
       <c r="K11">
-        <v>1.042820984704268</v>
+        <v>1.040019546227091</v>
       </c>
       <c r="L11">
-        <v>1.036157831650224</v>
+        <v>1.033810666867844</v>
       </c>
       <c r="M11">
-        <v>1.0465814618556</v>
+        <v>1.044262250908381</v>
       </c>
       <c r="N11">
-        <v>1.036242867381569</v>
+        <v>1.028097297694243</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.045921972765681</v>
+        <v>1.044087505632138</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.041417399247675</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039452241720326</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02273913395895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.005004926689005</v>
+        <v>1.001672691008531</v>
       </c>
       <c r="D12">
-        <v>1.028132637134394</v>
+        <v>1.025358390740672</v>
       </c>
       <c r="E12">
-        <v>1.021419517079837</v>
+        <v>1.019075228794483</v>
       </c>
       <c r="F12">
-        <v>1.032170016427636</v>
+        <v>1.029870135978368</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.052761794669585</v>
+        <v>1.051358686918166</v>
       </c>
       <c r="J12">
-        <v>1.034598969118796</v>
+        <v>1.031406427866385</v>
       </c>
       <c r="K12">
-        <v>1.042740003728134</v>
+        <v>1.040015372678879</v>
       </c>
       <c r="L12">
-        <v>1.03614754504956</v>
+        <v>1.033845880357295</v>
       </c>
       <c r="M12">
-        <v>1.046705795329831</v>
+        <v>1.044446605318254</v>
       </c>
       <c r="N12">
-        <v>1.036068218325105</v>
+        <v>1.028246969684704</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.046344166698012</v>
+        <v>1.04455777190504</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.041360143997753</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039449290981005</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022862753466485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.006081615634424</v>
+        <v>1.002350977520517</v>
       </c>
       <c r="D13">
-        <v>1.02898783945776</v>
+        <v>1.025898800925025</v>
       </c>
       <c r="E13">
-        <v>1.022502379431665</v>
+        <v>1.019758978727065</v>
       </c>
       <c r="F13">
-        <v>1.033235950139835</v>
+        <v>1.030629746460351</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.053172778015578</v>
+        <v>1.051610346547178</v>
       </c>
       <c r="J13">
-        <v>1.035539113884871</v>
+        <v>1.031963913555961</v>
       </c>
       <c r="K13">
-        <v>1.043537738351651</v>
+        <v>1.040503663764178</v>
       </c>
       <c r="L13">
-        <v>1.037168173765151</v>
+        <v>1.034474374883301</v>
       </c>
       <c r="M13">
-        <v>1.047710956955053</v>
+        <v>1.045150604435609</v>
       </c>
       <c r="N13">
-        <v>1.037009698204585</v>
+        <v>1.028516914011185</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.047413609270218</v>
+        <v>1.045389580459398</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.041921688991206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03979180019387</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023052017916049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.007602256074943</v>
+        <v>1.003383357179126</v>
       </c>
       <c r="D14">
-        <v>1.030098719724134</v>
+        <v>1.026626011873228</v>
       </c>
       <c r="E14">
-        <v>1.023841525794791</v>
+        <v>1.02063617376506</v>
       </c>
       <c r="F14">
-        <v>1.034493721287399</v>
+        <v>1.031521273239553</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.053663759908568</v>
+        <v>1.051906951863581</v>
       </c>
       <c r="J14">
-        <v>1.036697364183491</v>
+        <v>1.032651512710547</v>
       </c>
       <c r="K14">
-        <v>1.044490751956365</v>
+        <v>1.041079016845245</v>
       </c>
       <c r="L14">
-        <v>1.03834380762672</v>
+        <v>1.035195612876358</v>
       </c>
       <c r="M14">
-        <v>1.048809346635864</v>
+        <v>1.045888482180358</v>
       </c>
       <c r="N14">
-        <v>1.038169593351482</v>
+        <v>1.028767702434104</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.048454053440281</v>
+        <v>1.046145338083429</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.042596900581757</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040200133408137</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023221448918665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.008356871302137</v>
+        <v>1.003915186071709</v>
       </c>
       <c r="D15">
-        <v>1.030630633519051</v>
+        <v>1.026983519433921</v>
       </c>
       <c r="E15">
-        <v>1.024466238510103</v>
+        <v>1.02105732639856</v>
       </c>
       <c r="F15">
-        <v>1.035066599757885</v>
+        <v>1.031929497987264</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.053888932764826</v>
+        <v>1.052043698424593</v>
       </c>
       <c r="J15">
-        <v>1.037237068669297</v>
+        <v>1.032975881952675</v>
       </c>
       <c r="K15">
-        <v>1.044928278202885</v>
+        <v>1.041344691918933</v>
       </c>
       <c r="L15">
-        <v>1.038871600657148</v>
+        <v>1.03552298106473</v>
       </c>
       <c r="M15">
-        <v>1.04928775575756</v>
+        <v>1.046204658478558</v>
       </c>
       <c r="N15">
-        <v>1.038710064279562</v>
+        <v>1.028869903842221</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.048869495993316</v>
+        <v>1.04643261155403</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042912052513383</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040394365658539</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023286945471244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012022431050386</v>
+        <v>1.00661977468132</v>
       </c>
       <c r="D16">
-        <v>1.033116382905977</v>
+        <v>1.028717390662954</v>
       </c>
       <c r="E16">
-        <v>1.027317899498837</v>
+        <v>1.023067665835041</v>
       </c>
       <c r="F16">
-        <v>1.03762464819242</v>
+        <v>1.033788748603233</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.054887842605091</v>
+        <v>1.052660862998703</v>
       </c>
       <c r="J16">
-        <v>1.039691754607746</v>
+        <v>1.034497236251521</v>
       </c>
       <c r="K16">
-        <v>1.046877390868696</v>
+        <v>1.042551590994808</v>
       </c>
       <c r="L16">
-        <v>1.041175554625127</v>
+        <v>1.03699706058739</v>
       </c>
       <c r="M16">
-        <v>1.051311473410249</v>
+        <v>1.047538640073627</v>
       </c>
       <c r="N16">
-        <v>1.041168236153599</v>
+        <v>1.029321288869667</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.050430600759136</v>
+        <v>1.047448461863229</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.044293241294232</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041251106020161</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023518369395729</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014039132831248</v>
+        <v>1.008185153344199</v>
       </c>
       <c r="D17">
-        <v>1.034443037650609</v>
+        <v>1.029688780067998</v>
       </c>
       <c r="E17">
-        <v>1.02880712600372</v>
+        <v>1.024178071557551</v>
       </c>
       <c r="F17">
-        <v>1.038926269722818</v>
+        <v>1.034766265756479</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.055394012828916</v>
+        <v>1.052986284465124</v>
       </c>
       <c r="J17">
-        <v>1.040968296734568</v>
+        <v>1.035332381785485</v>
       </c>
       <c r="K17">
-        <v>1.047872954464059</v>
+        <v>1.043195539524938</v>
       </c>
       <c r="L17">
-        <v>1.042328235854304</v>
+        <v>1.037775048568687</v>
       </c>
       <c r="M17">
-        <v>1.05228454992434</v>
+        <v>1.048190991144474</v>
       </c>
       <c r="N17">
-        <v>1.042446591116664</v>
+        <v>1.029603162104653</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.051071707505923</v>
+        <v>1.047835739685516</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.044999679110119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041709203675903</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023612171970134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014790560623853</v>
+        <v>1.008840058094951</v>
       </c>
       <c r="D18">
-        <v>1.034856911988882</v>
+        <v>1.030024396891</v>
       </c>
       <c r="E18">
-        <v>1.02921190745931</v>
+        <v>1.024528350746902</v>
       </c>
       <c r="F18">
-        <v>1.039211137461657</v>
+        <v>1.034988389056735</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.055505924863607</v>
+        <v>1.053058057335863</v>
       </c>
       <c r="J18">
-        <v>1.041306212588159</v>
+        <v>1.035573208905875</v>
       </c>
       <c r="K18">
-        <v>1.048099923322479</v>
+        <v>1.043344242331292</v>
       </c>
       <c r="L18">
-        <v>1.042544761856676</v>
+        <v>1.037936711218482</v>
       </c>
       <c r="M18">
-        <v>1.05238570185615</v>
+        <v>1.048229322819882</v>
       </c>
       <c r="N18">
-        <v>1.042784986849526</v>
+        <v>1.029656584404389</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.050916074612471</v>
+        <v>1.047629771783093</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.045148648621618</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041801666434366</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023562628810645</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.014431605222608</v>
+        <v>1.008665151328225</v>
       </c>
       <c r="D19">
-        <v>1.034478193135771</v>
+        <v>1.029788548357242</v>
       </c>
       <c r="E19">
-        <v>1.028670658623432</v>
+        <v>1.024187032290899</v>
       </c>
       <c r="F19">
-        <v>1.038602262062538</v>
+        <v>1.034523513222747</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.055280538563126</v>
+        <v>1.052904911613917</v>
       </c>
       <c r="J19">
-        <v>1.040828767454476</v>
+        <v>1.03527201165493</v>
       </c>
       <c r="K19">
-        <v>1.047665693248045</v>
+        <v>1.043050270941722</v>
       </c>
       <c r="L19">
-        <v>1.041950201954526</v>
+        <v>1.037538552688233</v>
       </c>
       <c r="M19">
-        <v>1.051725199045444</v>
+        <v>1.04771030026038</v>
       </c>
       <c r="N19">
-        <v>1.04230686368899</v>
+        <v>1.029464752374311</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.050071516776085</v>
+        <v>1.04689605737463</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.044847963372821</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041600792066098</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023388373550262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.010925064061139</v>
+        <v>1.006146891808589</v>
       </c>
       <c r="D20">
-        <v>1.031846019891658</v>
+        <v>1.027934358702542</v>
       </c>
       <c r="E20">
-        <v>1.025450920572389</v>
+        <v>1.021904019049111</v>
       </c>
       <c r="F20">
-        <v>1.035494546936676</v>
+        <v>1.03215653283742</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.054096663650988</v>
+        <v>1.052115894380028</v>
       </c>
       <c r="J20">
-        <v>1.038041243126891</v>
+        <v>1.033442900346041</v>
       </c>
       <c r="K20">
-        <v>1.045351092206224</v>
+        <v>1.041503178560975</v>
       </c>
       <c r="L20">
-        <v>1.039060537219028</v>
+        <v>1.03557234536605</v>
       </c>
       <c r="M20">
-        <v>1.048940716859956</v>
+        <v>1.045656571365892</v>
       </c>
       <c r="N20">
-        <v>1.039515380757126</v>
+        <v>1.028561415549095</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.047346105785753</v>
+        <v>1.044747071203645</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.043215382007996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.040511253544178</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02286307293485</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.003800763205613</v>
+        <v>1.001149483505161</v>
       </c>
       <c r="D21">
-        <v>1.026942555094422</v>
+        <v>1.024706684074929</v>
       </c>
       <c r="E21">
-        <v>1.019756230635915</v>
+        <v>1.018145867582069</v>
       </c>
       <c r="F21">
-        <v>1.030363653816623</v>
+        <v>1.028604500725213</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.052088088688431</v>
+        <v>1.050957152356017</v>
       </c>
       <c r="J21">
-        <v>1.033140431109929</v>
+        <v>1.03059922377822</v>
       </c>
       <c r="K21">
-        <v>1.041430859729909</v>
+        <v>1.039234626397754</v>
       </c>
       <c r="L21">
-        <v>1.034372738755851</v>
+        <v>1.032791427200475</v>
       </c>
       <c r="M21">
-        <v>1.044791740388443</v>
+        <v>1.043063486995524</v>
       </c>
       <c r="N21">
-        <v>1.034607609024969</v>
+        <v>1.027772819019262</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.04402204007231</v>
+        <v>1.042654248745261</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.040446906466048</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038910876337352</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022432553832273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9992418270429083</v>
+        <v>0.9979437425520524</v>
       </c>
       <c r="D22">
-        <v>1.023814959444571</v>
+        <v>1.022648305638441</v>
       </c>
       <c r="E22">
-        <v>1.016135592801666</v>
+        <v>1.015760703527961</v>
       </c>
       <c r="F22">
-        <v>1.027118166780264</v>
+        <v>1.02636651822562</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.050794419727694</v>
+        <v>1.050204717247517</v>
       </c>
       <c r="J22">
-        <v>1.030015333057043</v>
+        <v>1.028774452768962</v>
       </c>
       <c r="K22">
-        <v>1.038928953405292</v>
+        <v>1.037784062184254</v>
       </c>
       <c r="L22">
-        <v>1.031394037160849</v>
+        <v>1.031026272756066</v>
       </c>
       <c r="M22">
-        <v>1.042170892726637</v>
+        <v>1.04143314059121</v>
       </c>
       <c r="N22">
-        <v>1.031478072974394</v>
+        <v>1.02722067008548</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.04194782198742</v>
+        <v>1.041363941571382</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038664579383678</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037870562350342</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022162034960945</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.001643869136234</v>
+        <v>0.9995666913982932</v>
       </c>
       <c r="D23">
-        <v>1.025455667458967</v>
+        <v>1.023673191320912</v>
       </c>
       <c r="E23">
-        <v>1.018035469735905</v>
+        <v>1.016944441622642</v>
       </c>
       <c r="F23">
-        <v>1.028823710195385</v>
+        <v>1.027489877651175</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.051472252543217</v>
+        <v>1.050570945182083</v>
       </c>
       <c r="J23">
-        <v>1.031654691332137</v>
+        <v>1.029666231997661</v>
       </c>
       <c r="K23">
-        <v>1.040237625933404</v>
+        <v>1.038487524278953</v>
       </c>
       <c r="L23">
-        <v>1.032953171462585</v>
+        <v>1.031882320152964</v>
       </c>
       <c r="M23">
-        <v>1.043544894016525</v>
+        <v>1.042235067877885</v>
       </c>
       <c r="N23">
-        <v>1.033119759326276</v>
+        <v>1.027401556595062</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.043035248890878</v>
+        <v>1.041998612213284</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.039580280436739</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.038357408512127</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02227121920701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.01088584888176</v>
+        <v>1.006134082034451</v>
       </c>
       <c r="D24">
-        <v>1.031790350963555</v>
+        <v>1.027898694735577</v>
       </c>
       <c r="E24">
-        <v>1.02537454928831</v>
+        <v>1.021857968982584</v>
       </c>
       <c r="F24">
-        <v>1.035413135351755</v>
+        <v>1.032096332585022</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.054060373780767</v>
+        <v>1.052089706452533</v>
       </c>
       <c r="J24">
-        <v>1.037971201957448</v>
+        <v>1.033398033167935</v>
       </c>
       <c r="K24">
-        <v>1.045281281485918</v>
+        <v>1.041452972928407</v>
       </c>
       <c r="L24">
-        <v>1.038970245752679</v>
+        <v>1.03551180763404</v>
       </c>
       <c r="M24">
-        <v>1.048845643819438</v>
+        <v>1.045582308402068</v>
       </c>
       <c r="N24">
-        <v>1.039445240121188</v>
+        <v>1.028528380433452</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.047230410232262</v>
+        <v>1.044647718343408</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.043138885623716</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.04044587559819</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022828977559397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021118826183997</v>
+        <v>1.014423494121518</v>
       </c>
       <c r="D25">
-        <v>1.038822400075951</v>
+        <v>1.033375536283672</v>
       </c>
       <c r="E25">
-        <v>1.033532418817702</v>
+        <v>1.028321485999122</v>
       </c>
       <c r="F25">
-        <v>1.042748766914657</v>
+        <v>1.038011378362729</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.056865621236598</v>
+        <v>1.054102679667933</v>
       </c>
       <c r="J25">
-        <v>1.044955776946793</v>
+        <v>1.038475012688438</v>
       </c>
       <c r="K25">
-        <v>1.050846523711853</v>
+        <v>1.045476926846969</v>
       </c>
       <c r="L25">
-        <v>1.045631569497083</v>
+        <v>1.040495498930564</v>
       </c>
       <c r="M25">
-        <v>1.054717824776162</v>
+        <v>1.050046941870655</v>
       </c>
       <c r="N25">
-        <v>1.04643973400816</v>
+        <v>1.031279767177078</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.051877790333837</v>
+        <v>1.048181147714162</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.047070873577148</v>
+        <v>1.043287805667772</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023795903573534</v>
       </c>
     </row>
   </sheetData>
